--- a/ExcelTemplates/bin/Debug/Templates/_template_акт+счет_QR.xlsx
+++ b/ExcelTemplates/bin/Debug/Templates/_template_акт+счет_QR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>БИК</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Назначение платежа: Оплата счета № %NUMBER% от %DATE% %BYCONTRACT%</t>
+  </si>
+  <si>
+    <t>%BARCODE%</t>
+  </si>
+  <si>
+    <t>%MATRIX%</t>
   </si>
 </sst>
 </file>
@@ -767,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -869,6 +875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="180"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1522,7 +1532,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,38 +1565,38 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="92" t="s">
+      <c r="L2" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="92"/>
-      <c r="AD2" s="92"/>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="92"/>
-      <c r="AK2" s="92"/>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
+      <c r="AH2" s="94"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="94"/>
+      <c r="AL2" s="94"/>
+      <c r="AM2" s="94"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
       <c r="AP2" s="10"/>
     </row>
     <row r="3" spans="2:42" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,222 +1652,222 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="93" t="s">
+      <c r="L4" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93"/>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="93"/>
-      <c r="X4" s="93"/>
-      <c r="Y4" s="93"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="93"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="93"/>
-      <c r="AE4" s="93"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="93"/>
-      <c r="AH4" s="93"/>
-      <c r="AI4" s="93"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="93"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="93"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="95"/>
+      <c r="W4" s="95"/>
+      <c r="X4" s="95"/>
+      <c r="Y4" s="95"/>
+      <c r="Z4" s="95"/>
+      <c r="AA4" s="95"/>
+      <c r="AB4" s="95"/>
+      <c r="AC4" s="95"/>
+      <c r="AD4" s="95"/>
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AG4" s="95"/>
+      <c r="AH4" s="95"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="95"/>
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="95"/>
       <c r="AP4" s="13"/>
     </row>
     <row r="5" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115"/>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
-      <c r="AF5" s="115"/>
-      <c r="AG5" s="115"/>
-      <c r="AH5" s="115"/>
-      <c r="AI5" s="115"/>
-      <c r="AJ5" s="115"/>
-      <c r="AK5" s="115"/>
-      <c r="AL5" s="115"/>
-      <c r="AM5" s="115"/>
-      <c r="AN5" s="115"/>
-      <c r="AO5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="117"/>
+      <c r="AK5" s="117"/>
+      <c r="AL5" s="117"/>
+      <c r="AM5" s="117"/>
+      <c r="AN5" s="117"/>
+      <c r="AO5" s="117"/>
       <c r="AP5" s="11"/>
     </row>
     <row r="6" spans="2:42" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="70"/>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="70"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="70"/>
-      <c r="AK6" s="70"/>
-      <c r="AL6" s="70"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="70"/>
-      <c r="AO6" s="70"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
+      <c r="AG6" s="72"/>
+      <c r="AH6" s="72"/>
+      <c r="AI6" s="72"/>
+      <c r="AJ6" s="72"/>
+      <c r="AK6" s="72"/>
+      <c r="AL6" s="72"/>
+      <c r="AM6" s="72"/>
+      <c r="AN6" s="72"/>
+      <c r="AO6" s="72"/>
       <c r="AP6" s="21"/>
     </row>
     <row r="7" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:42" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="114" t="s">
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="114"/>
-      <c r="Y8" s="114"/>
-      <c r="Z8" s="114"/>
-      <c r="AA8" s="114"/>
-      <c r="AB8" s="114"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="114"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="114"/>
-      <c r="AG8" s="114"/>
-      <c r="AH8" s="114"/>
-      <c r="AI8" s="114"/>
-      <c r="AJ8" s="114"/>
-      <c r="AK8" s="114"/>
-      <c r="AL8" s="114"/>
-      <c r="AM8" s="114"/>
-      <c r="AN8" s="114"/>
-      <c r="AO8" s="114"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
       <c r="AP8" s="30"/>
     </row>
     <row r="9" spans="2:42" s="2" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="2:42" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="114" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="114"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="116"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="116"/>
+      <c r="W10" s="116"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="116"/>
+      <c r="AB10" s="116"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="116"/>
+      <c r="AL10" s="116"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
       <c r="AP10" s="30"/>
     </row>
     <row r="11" spans="2:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1904,42 +1914,42 @@
       <c r="AP11" s="5"/>
     </row>
     <row r="12" spans="2:42" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="60"/>
-      <c r="Q12" s="60"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="60"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="62"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -1952,245 +1962,245 @@
     </row>
     <row r="13" spans="2:42" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="64" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="67" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="69"/>
-      <c r="AG14" s="64" t="s">
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="67"/>
-      <c r="AL14" s="44" t="s">
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AM14" s="44"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="45"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="47"/>
     </row>
     <row r="15" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="46"/>
-      <c r="AN15" s="46"/>
-      <c r="AO15" s="46"/>
-      <c r="AP15" s="47"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="48"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="49"/>
     </row>
     <row r="16" spans="2:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="49"/>
-      <c r="U16" s="49"/>
-      <c r="V16" s="49"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="49"/>
-      <c r="Y16" s="49"/>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
-      <c r="AB16" s="49"/>
-      <c r="AC16" s="49"/>
-      <c r="AD16" s="49"/>
-      <c r="AE16" s="49"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="49"/>
-      <c r="AH16" s="49"/>
-      <c r="AI16" s="49"/>
-      <c r="AJ16" s="49"/>
-      <c r="AK16" s="49"/>
-      <c r="AL16" s="49"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="49"/>
-      <c r="AO16" s="49"/>
-      <c r="AP16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+      <c r="AE16" s="51"/>
+      <c r="AF16" s="51"/>
+      <c r="AG16" s="51"/>
+      <c r="AH16" s="51"/>
+      <c r="AI16" s="51"/>
+      <c r="AJ16" s="51"/>
+      <c r="AK16" s="51"/>
+      <c r="AL16" s="51"/>
+      <c r="AM16" s="51"/>
+      <c r="AN16" s="51"/>
+      <c r="AO16" s="51"/>
+      <c r="AP16" s="52"/>
     </row>
     <row r="17" spans="2:42" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="53" t="s">
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="54" t="s">
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AE17" s="54"/>
-      <c r="AF17" s="54"/>
-      <c r="AG17" s="55" t="s">
+      <c r="AE17" s="56"/>
+      <c r="AF17" s="56"/>
+      <c r="AG17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="AH17" s="55"/>
-      <c r="AI17" s="55"/>
-      <c r="AJ17" s="55"/>
-      <c r="AK17" s="56"/>
-      <c r="AL17" s="57" t="s">
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="58"/>
+      <c r="AL17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="AM17" s="57"/>
-      <c r="AN17" s="57"/>
-      <c r="AO17" s="57"/>
-      <c r="AP17" s="58"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="59"/>
+      <c r="AO17" s="59"/>
+      <c r="AP17" s="60"/>
     </row>
     <row r="18" spans="2:42" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="41"/>
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="41"/>
+      <c r="AH18" s="41"/>
+      <c r="AI18" s="41"/>
+      <c r="AJ18" s="41"/>
+      <c r="AK18" s="41"/>
+      <c r="AL18" s="41"/>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
     </row>
     <row r="19" spans="2:42" s="1" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
@@ -2236,122 +2246,122 @@
       <c r="AP19" s="14"/>
     </row>
     <row r="20" spans="2:42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AG20" s="40" t="s">
+      <c r="AG20" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AH20" s="40"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="40"/>
-      <c r="AL20" s="41" t="s">
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="43"/>
+      <c r="AO20" s="43"/>
+      <c r="AP20" s="43"/>
     </row>
     <row r="21" spans="2:42" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AK21" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AL21" s="42" t="s">
+      <c r="AL21" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="44"/>
+      <c r="AO21" s="44"/>
+      <c r="AP21" s="44"/>
     </row>
     <row r="22" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="43"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="43"/>
-      <c r="AH22" s="43"/>
-      <c r="AI22" s="43"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="43"/>
-      <c r="AL22" s="43"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+      <c r="AM22" s="45"/>
+      <c r="AN22" s="45"/>
+      <c r="AO22" s="45"/>
+      <c r="AP22" s="45"/>
     </row>
     <row r="23" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
-      <c r="AJ23" s="35"/>
-      <c r="AK23" s="35"/>
-      <c r="AL23" s="35"/>
-      <c r="AM23" s="35"/>
-      <c r="AN23" s="35"/>
-      <c r="AO23" s="35"/>
-      <c r="AP23" s="35"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+      <c r="AA23" s="37"/>
+      <c r="AB23" s="37"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="37"/>
+      <c r="AG23" s="37"/>
+      <c r="AH23" s="37"/>
+      <c r="AI23" s="37"/>
+      <c r="AJ23" s="37"/>
+      <c r="AK23" s="37"/>
+      <c r="AL23" s="37"/>
+      <c r="AM23" s="37"/>
+      <c r="AN23" s="37"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
     </row>
     <row r="24" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="32"/>
@@ -2397,49 +2407,49 @@
       <c r="AP24" s="32"/>
     </row>
     <row r="25" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="36"/>
-      <c r="T25" s="36"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="36"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="36"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="36"/>
-      <c r="AC25" s="36"/>
-      <c r="AD25" s="36"/>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="36"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-      <c r="AJ25" s="36"/>
-      <c r="AK25" s="36"/>
-      <c r="AL25" s="36"/>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="36"/>
-      <c r="AO25" s="36"/>
-      <c r="AP25" s="36"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="38"/>
+      <c r="AJ25" s="38"/>
+      <c r="AK25" s="38"/>
+      <c r="AL25" s="38"/>
+      <c r="AM25" s="38"/>
+      <c r="AN25" s="38"/>
+      <c r="AO25" s="38"/>
+      <c r="AP25" s="38"/>
     </row>
     <row r="26" spans="2:42" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="33"/>
@@ -2485,182 +2495,182 @@
       <c r="AP26" s="33"/>
     </row>
     <row r="27" spans="2:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="38"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="38"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="38"/>
-      <c r="AI27" s="38"/>
-      <c r="AJ27" s="38"/>
-      <c r="AK27" s="38"/>
-      <c r="AL27" s="38"/>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="40"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="40"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="40"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="40"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="40"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
+      <c r="AK27" s="40"/>
+      <c r="AL27" s="40"/>
+      <c r="AM27" s="40"/>
+      <c r="AN27" s="40"/>
+      <c r="AO27" s="40"/>
+      <c r="AP27" s="40"/>
     </row>
     <row r="28" spans="2:42" s="1" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="2:42" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="70"/>
-      <c r="S29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="70"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="70"/>
-      <c r="AO29" s="70"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="72"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="72"/>
+      <c r="AF29" s="72"/>
+      <c r="AG29" s="72"/>
+      <c r="AH29" s="72"/>
+      <c r="AI29" s="72"/>
+      <c r="AJ29" s="72"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="72"/>
+      <c r="AO29" s="72"/>
       <c r="AP29" s="21"/>
     </row>
     <row r="30" spans="2:42" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
-      <c r="U30" s="78"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="78"/>
-      <c r="AI30" s="78"/>
-      <c r="AJ30" s="78"/>
-      <c r="AK30" s="78"/>
-      <c r="AL30" s="78"/>
-      <c r="AM30" s="78"/>
-      <c r="AN30" s="78"/>
-      <c r="AO30" s="78"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="80"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
+      <c r="AA30" s="80"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="80"/>
+      <c r="AD30" s="80"/>
+      <c r="AE30" s="80"/>
+      <c r="AF30" s="80"/>
+      <c r="AG30" s="80"/>
+      <c r="AH30" s="80"/>
+      <c r="AI30" s="80"/>
+      <c r="AJ30" s="80"/>
+      <c r="AK30" s="80"/>
+      <c r="AL30" s="80"/>
+      <c r="AM30" s="80"/>
+      <c r="AN30" s="80"/>
+      <c r="AO30" s="80"/>
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="2:42" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="81"/>
-      <c r="T31" s="85" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="83"/>
+      <c r="T31" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="87" t="s">
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="87"/>
-      <c r="AF31" s="87"/>
-      <c r="AG31" s="87"/>
-      <c r="AH31" s="87"/>
-      <c r="AI31" s="88"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="89"/>
+      <c r="AF31" s="89"/>
+      <c r="AG31" s="89"/>
+      <c r="AH31" s="89"/>
+      <c r="AI31" s="90"/>
       <c r="AJ31" s="22"/>
       <c r="AK31" s="23"/>
       <c r="AL31" s="23"/>
@@ -2670,40 +2680,40 @@
       <c r="AP31" s="24"/>
     </row>
     <row r="32" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="83"/>
-      <c r="R32" s="83"/>
-      <c r="S32" s="84"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="87"/>
-      <c r="AI32" s="88"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="89"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="89"/>
+      <c r="AI32" s="90"/>
       <c r="AJ32" s="15"/>
       <c r="AK32" s="12" t="s">
         <v>35</v>
@@ -2715,44 +2725,44 @@
       <c r="AP32" s="16"/>
     </row>
     <row r="33" spans="2:42" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="82"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="83"/>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="84"/>
-      <c r="T33" s="99" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="85"/>
+      <c r="O33" s="85"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
+      <c r="R33" s="85"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="106" t="s">
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="107"/>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="107"/>
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109"/>
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109"/>
+      <c r="AB33" s="109"/>
+      <c r="AC33" s="109"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="109"/>
+      <c r="AF33" s="109"/>
+      <c r="AG33" s="109"/>
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109"/>
       <c r="AJ33" s="15"/>
       <c r="AK33" s="12"/>
       <c r="AL33" s="12"/>
@@ -2762,42 +2772,42 @@
       <c r="AP33" s="16"/>
     </row>
     <row r="34" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
-      <c r="O34" s="120"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="109"/>
-      <c r="AE34" s="109"/>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="109"/>
+      <c r="C34" s="122"/>
+      <c r="D34" s="122"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="123"/>
+      <c r="T34" s="119"/>
+      <c r="U34" s="119"/>
+      <c r="V34" s="120"/>
+      <c r="W34" s="110"/>
+      <c r="X34" s="111"/>
+      <c r="Y34" s="111"/>
+      <c r="Z34" s="111"/>
+      <c r="AA34" s="111"/>
+      <c r="AB34" s="111"/>
+      <c r="AC34" s="111"/>
+      <c r="AD34" s="111"/>
+      <c r="AE34" s="111"/>
+      <c r="AF34" s="111"/>
+      <c r="AG34" s="111"/>
+      <c r="AH34" s="111"/>
+      <c r="AI34" s="111"/>
       <c r="AJ34" s="15"/>
       <c r="AK34" s="12"/>
       <c r="AL34" s="12"/>
@@ -2807,50 +2817,50 @@
       <c r="AP34" s="16"/>
     </row>
     <row r="35" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="77" t="s">
+      <c r="B35" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="89" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="90"/>
-      <c r="K35" s="77" t="s">
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="L35" s="77"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="94" t="s">
+      <c r="L35" s="79"/>
+      <c r="M35" s="93"/>
+      <c r="N35" s="93"/>
+      <c r="O35" s="93"/>
+      <c r="P35" s="93"/>
+      <c r="Q35" s="93"/>
+      <c r="R35" s="93"/>
+      <c r="S35" s="93"/>
+      <c r="T35" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="U35" s="95"/>
-      <c r="V35" s="96"/>
-      <c r="W35" s="110" t="s">
+      <c r="U35" s="97"/>
+      <c r="V35" s="98"/>
+      <c r="W35" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="111"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="111"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="111"/>
-      <c r="AI35" s="111"/>
+      <c r="X35" s="113"/>
+      <c r="Y35" s="113"/>
+      <c r="Z35" s="113"/>
+      <c r="AA35" s="113"/>
+      <c r="AB35" s="113"/>
+      <c r="AC35" s="113"/>
+      <c r="AD35" s="113"/>
+      <c r="AE35" s="113"/>
+      <c r="AF35" s="113"/>
+      <c r="AG35" s="113"/>
+      <c r="AH35" s="113"/>
+      <c r="AI35" s="113"/>
       <c r="AJ35" s="15"/>
       <c r="AK35" s="12"/>
       <c r="AL35" s="12"/>
@@ -2860,42 +2870,42 @@
       <c r="AP35" s="16"/>
     </row>
     <row r="36" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="97"/>
-      <c r="U36" s="98"/>
-      <c r="V36" s="99"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="107"/>
-      <c r="Y36" s="107"/>
-      <c r="Z36" s="107"/>
-      <c r="AA36" s="107"/>
-      <c r="AB36" s="107"/>
-      <c r="AC36" s="107"/>
-      <c r="AD36" s="107"/>
-      <c r="AE36" s="107"/>
-      <c r="AF36" s="107"/>
-      <c r="AG36" s="107"/>
-      <c r="AH36" s="107"/>
-      <c r="AI36" s="107"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+      <c r="T36" s="99"/>
+      <c r="U36" s="100"/>
+      <c r="V36" s="101"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="109"/>
+      <c r="Y36" s="109"/>
+      <c r="Z36" s="109"/>
+      <c r="AA36" s="109"/>
+      <c r="AB36" s="109"/>
+      <c r="AC36" s="109"/>
+      <c r="AD36" s="109"/>
+      <c r="AE36" s="109"/>
+      <c r="AF36" s="109"/>
+      <c r="AG36" s="109"/>
+      <c r="AH36" s="109"/>
+      <c r="AI36" s="109"/>
       <c r="AJ36" s="15"/>
       <c r="AK36" s="12"/>
       <c r="AL36" s="12"/>
@@ -2905,40 +2915,40 @@
       <c r="AP36" s="16"/>
     </row>
     <row r="37" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="98"/>
-      <c r="V37" s="99"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="107"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="76"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="76"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="99"/>
+      <c r="U37" s="100"/>
+      <c r="V37" s="101"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="109"/>
+      <c r="Y37" s="109"/>
+      <c r="Z37" s="109"/>
+      <c r="AA37" s="109"/>
+      <c r="AB37" s="109"/>
+      <c r="AC37" s="109"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="109"/>
+      <c r="AF37" s="109"/>
+      <c r="AG37" s="109"/>
+      <c r="AH37" s="109"/>
+      <c r="AI37" s="109"/>
       <c r="AJ37" s="15"/>
       <c r="AK37" s="12"/>
       <c r="AL37" s="12"/>
@@ -2948,40 +2958,40 @@
       <c r="AP37" s="16"/>
     </row>
     <row r="38" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="75"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="98"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="107"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="76"/>
+      <c r="K38" s="76"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="76"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="76"/>
+      <c r="S38" s="77"/>
+      <c r="T38" s="99"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="101"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="109"/>
+      <c r="Y38" s="109"/>
+      <c r="Z38" s="109"/>
+      <c r="AA38" s="109"/>
+      <c r="AB38" s="109"/>
+      <c r="AC38" s="109"/>
+      <c r="AD38" s="109"/>
+      <c r="AE38" s="109"/>
+      <c r="AF38" s="109"/>
+      <c r="AG38" s="109"/>
+      <c r="AH38" s="109"/>
+      <c r="AI38" s="109"/>
       <c r="AJ38" s="15"/>
       <c r="AK38" s="12"/>
       <c r="AL38" s="12"/>
@@ -2991,42 +3001,42 @@
       <c r="AP38" s="16"/>
     </row>
     <row r="39" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="100"/>
-      <c r="U39" s="101"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="108"/>
-      <c r="X39" s="109"/>
-      <c r="Y39" s="109"/>
-      <c r="Z39" s="109"/>
-      <c r="AA39" s="109"/>
-      <c r="AB39" s="109"/>
-      <c r="AC39" s="109"/>
-      <c r="AD39" s="109"/>
-      <c r="AE39" s="109"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="109"/>
-      <c r="AH39" s="109"/>
-      <c r="AI39" s="109"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="78"/>
+      <c r="H39" s="78"/>
+      <c r="I39" s="78"/>
+      <c r="J39" s="78"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
+      <c r="Q39" s="78"/>
+      <c r="R39" s="78"/>
+      <c r="S39" s="78"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="103"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="110"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+      <c r="Z39" s="111"/>
+      <c r="AA39" s="111"/>
+      <c r="AB39" s="111"/>
+      <c r="AC39" s="111"/>
+      <c r="AD39" s="111"/>
+      <c r="AE39" s="111"/>
+      <c r="AF39" s="111"/>
+      <c r="AG39" s="111"/>
+      <c r="AH39" s="111"/>
+      <c r="AI39" s="111"/>
       <c r="AJ39" s="15"/>
       <c r="AK39" s="12"/>
       <c r="AL39" s="12"/>
@@ -3036,42 +3046,42 @@
       <c r="AP39" s="16"/>
     </row>
     <row r="40" spans="2:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="104"/>
-      <c r="M40" s="104"/>
-      <c r="N40" s="104"/>
-      <c r="O40" s="104"/>
-      <c r="P40" s="104"/>
-      <c r="Q40" s="104"/>
-      <c r="R40" s="104"/>
-      <c r="S40" s="104"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="104"/>
-      <c r="V40" s="104"/>
-      <c r="W40" s="104"/>
-      <c r="X40" s="104"/>
-      <c r="Y40" s="104"/>
-      <c r="Z40" s="104"/>
-      <c r="AA40" s="104"/>
-      <c r="AB40" s="104"/>
-      <c r="AC40" s="104"/>
-      <c r="AD40" s="104"/>
-      <c r="AE40" s="104"/>
-      <c r="AF40" s="104"/>
-      <c r="AG40" s="104"/>
-      <c r="AH40" s="104"/>
-      <c r="AI40" s="105"/>
+      <c r="C40" s="106"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
+      <c r="O40" s="106"/>
+      <c r="P40" s="106"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
+      <c r="S40" s="106"/>
+      <c r="T40" s="106"/>
+      <c r="U40" s="106"/>
+      <c r="V40" s="106"/>
+      <c r="W40" s="106"/>
+      <c r="X40" s="106"/>
+      <c r="Y40" s="106"/>
+      <c r="Z40" s="106"/>
+      <c r="AA40" s="106"/>
+      <c r="AB40" s="106"/>
+      <c r="AC40" s="106"/>
+      <c r="AD40" s="106"/>
+      <c r="AE40" s="106"/>
+      <c r="AF40" s="106"/>
+      <c r="AG40" s="106"/>
+      <c r="AH40" s="106"/>
+      <c r="AI40" s="107"/>
       <c r="AJ40" s="15"/>
       <c r="AK40" s="12"/>
       <c r="AL40" s="12"/>
@@ -3127,94 +3137,94 @@
     </row>
     <row r="42" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="2:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="43"/>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="43"/>
-      <c r="AP43" s="43"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="45"/>
+      <c r="K43" s="45"/>
+      <c r="L43" s="45"/>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
+      <c r="Q43" s="45"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="45"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="45"/>
+      <c r="X43" s="45"/>
+      <c r="Y43" s="45"/>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="45"/>
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="45"/>
+      <c r="AE43" s="45"/>
+      <c r="AF43" s="45"/>
+      <c r="AG43" s="45"/>
+      <c r="AH43" s="45"/>
+      <c r="AI43" s="45"/>
+      <c r="AJ43" s="45"/>
+      <c r="AK43" s="45"/>
+      <c r="AL43" s="45"/>
+      <c r="AM43" s="45"/>
+      <c r="AN43" s="45"/>
+      <c r="AO43" s="45"/>
+      <c r="AP43" s="45"/>
     </row>
     <row r="44" spans="2:42" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
-      <c r="AF44" s="35"/>
-      <c r="AG44" s="35"/>
-      <c r="AH44" s="35"/>
-      <c r="AI44" s="35"/>
-      <c r="AJ44" s="35"/>
-      <c r="AK44" s="35"/>
-      <c r="AL44" s="35"/>
-      <c r="AM44" s="35"/>
-      <c r="AN44" s="35"/>
-      <c r="AO44" s="35"/>
-      <c r="AP44" s="35"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
     </row>
     <row r="45" spans="2:42" s="1" customFormat="1" ht="6.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:42" s="1" customFormat="1" ht="6.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3264,106 +3274,106 @@
       <c r="AO47" s="34"/>
     </row>
     <row r="48" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I48" s="126"/>
-      <c r="J48" s="126"/>
-      <c r="K48" s="126"/>
-      <c r="L48" s="126"/>
-      <c r="M48" s="126"/>
-      <c r="N48" s="126"/>
-      <c r="O48" s="126"/>
-      <c r="P48" s="126"/>
-      <c r="Q48" s="126"/>
-      <c r="R48" s="126"/>
-      <c r="S48" s="126"/>
-      <c r="T48" s="126"/>
-      <c r="AC48" s="126"/>
-      <c r="AD48" s="126"/>
-      <c r="AE48" s="126"/>
-      <c r="AF48" s="126"/>
-      <c r="AG48" s="126"/>
-      <c r="AH48" s="126"/>
-      <c r="AI48" s="126"/>
-      <c r="AJ48" s="126"/>
-      <c r="AK48" s="126"/>
-      <c r="AL48" s="126"/>
-      <c r="AM48" s="126"/>
-      <c r="AN48" s="126"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="128"/>
+      <c r="N48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="P48" s="128"/>
+      <c r="Q48" s="128"/>
+      <c r="R48" s="128"/>
+      <c r="S48" s="128"/>
+      <c r="T48" s="128"/>
+      <c r="AC48" s="128"/>
+      <c r="AD48" s="128"/>
+      <c r="AE48" s="128"/>
+      <c r="AF48" s="128"/>
+      <c r="AG48" s="128"/>
+      <c r="AH48" s="128"/>
+      <c r="AI48" s="128"/>
+      <c r="AJ48" s="128"/>
+      <c r="AK48" s="128"/>
+      <c r="AL48" s="128"/>
+      <c r="AM48" s="128"/>
+      <c r="AN48" s="128"/>
     </row>
     <row r="49" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="114" t="s">
+      <c r="C49" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="114"/>
-      <c r="E49" s="114"/>
-      <c r="F49" s="114"/>
-      <c r="G49" s="114"/>
-      <c r="I49" s="127"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="127"/>
-      <c r="O49" s="127"/>
-      <c r="P49" s="127"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="W49" s="114" t="s">
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="W49" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="X49" s="114"/>
-      <c r="Y49" s="114"/>
-      <c r="Z49" s="114"/>
-      <c r="AA49" s="114"/>
+      <c r="X49" s="116"/>
+      <c r="Y49" s="116"/>
+      <c r="Z49" s="116"/>
+      <c r="AA49" s="116"/>
       <c r="AB49"/>
-      <c r="AC49" s="127"/>
-      <c r="AD49" s="127"/>
-      <c r="AE49" s="127"/>
-      <c r="AF49" s="127"/>
-      <c r="AG49" s="127"/>
-      <c r="AH49" s="127"/>
-      <c r="AI49" s="127"/>
-      <c r="AJ49" s="127"/>
-      <c r="AK49" s="127"/>
-      <c r="AL49" s="127"/>
-      <c r="AM49" s="127"/>
-      <c r="AN49" s="127"/>
+      <c r="AC49" s="129"/>
+      <c r="AD49" s="129"/>
+      <c r="AE49" s="129"/>
+      <c r="AF49" s="129"/>
+      <c r="AG49" s="129"/>
+      <c r="AH49" s="129"/>
+      <c r="AI49" s="129"/>
+      <c r="AJ49" s="129"/>
+      <c r="AK49" s="129"/>
+      <c r="AL49" s="129"/>
+      <c r="AM49" s="129"/>
+      <c r="AN49" s="129"/>
     </row>
     <row r="50" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I50" s="122" t="s">
+      <c r="I50" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="123"/>
-      <c r="O50" s="123"/>
-      <c r="P50" s="123"/>
-      <c r="Q50" s="123"/>
-      <c r="R50" s="123"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="123"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
+      <c r="O50" s="125"/>
+      <c r="P50" s="125"/>
+      <c r="Q50" s="125"/>
+      <c r="R50" s="125"/>
+      <c r="S50" s="125"/>
+      <c r="T50" s="125"/>
       <c r="X50"/>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
-      <c r="AC50" s="124" t="s">
+      <c r="AC50" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="AD50" s="124"/>
-      <c r="AE50" s="124"/>
-      <c r="AF50" s="124"/>
-      <c r="AG50" s="124"/>
-      <c r="AH50" s="124"/>
-      <c r="AI50" s="124"/>
-      <c r="AJ50" s="124"/>
-      <c r="AK50" s="124"/>
-      <c r="AL50" s="124"/>
-      <c r="AM50" s="124"/>
-      <c r="AN50" s="124"/>
+      <c r="AD50" s="126"/>
+      <c r="AE50" s="126"/>
+      <c r="AF50" s="126"/>
+      <c r="AG50" s="126"/>
+      <c r="AH50" s="126"/>
+      <c r="AI50" s="126"/>
+      <c r="AJ50" s="126"/>
+      <c r="AK50" s="126"/>
+      <c r="AL50" s="126"/>
+      <c r="AM50" s="126"/>
+      <c r="AN50" s="126"/>
     </row>
     <row r="51" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51"/>
@@ -3372,38 +3382,38 @@
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
-      <c r="I51" s="115" t="s">
+      <c r="I51" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="115"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="115"/>
+      <c r="J51" s="117"/>
+      <c r="K51" s="117"/>
+      <c r="L51" s="117"/>
+      <c r="M51" s="117"/>
+      <c r="N51" s="117"/>
+      <c r="O51" s="117"/>
+      <c r="P51" s="117"/>
+      <c r="Q51" s="117"/>
+      <c r="R51" s="117"/>
+      <c r="S51" s="117"/>
+      <c r="T51" s="117"/>
       <c r="W51"/>
       <c r="X51"/>
       <c r="Y51"/>
       <c r="Z51"/>
       <c r="AA51"/>
       <c r="AB51"/>
-      <c r="AC51" s="126"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="126"/>
-      <c r="AF51" s="126"/>
-      <c r="AG51" s="126"/>
-      <c r="AH51" s="126"/>
-      <c r="AI51" s="126"/>
-      <c r="AJ51" s="126"/>
-      <c r="AK51" s="126"/>
-      <c r="AL51" s="126"/>
-      <c r="AM51" s="126"/>
-      <c r="AN51" s="126"/>
+      <c r="AC51" s="128"/>
+      <c r="AD51" s="128"/>
+      <c r="AE51" s="128"/>
+      <c r="AF51" s="128"/>
+      <c r="AG51" s="128"/>
+      <c r="AH51" s="128"/>
+      <c r="AI51" s="128"/>
+      <c r="AJ51" s="128"/>
+      <c r="AK51" s="128"/>
+      <c r="AL51" s="128"/>
+      <c r="AM51" s="128"/>
+      <c r="AN51" s="128"/>
     </row>
     <row r="52" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52"/>
@@ -3412,36 +3422,36 @@
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="117"/>
+      <c r="K52" s="117"/>
+      <c r="L52" s="117"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="117"/>
+      <c r="P52" s="117"/>
+      <c r="Q52" s="117"/>
+      <c r="R52" s="117"/>
+      <c r="S52" s="117"/>
+      <c r="T52" s="117"/>
       <c r="W52"/>
       <c r="X52"/>
       <c r="Y52"/>
       <c r="Z52"/>
       <c r="AA52"/>
       <c r="AB52"/>
-      <c r="AC52" s="126"/>
-      <c r="AD52" s="126"/>
-      <c r="AE52" s="126"/>
-      <c r="AF52" s="126"/>
-      <c r="AG52" s="126"/>
-      <c r="AH52" s="126"/>
-      <c r="AI52" s="126"/>
-      <c r="AJ52" s="126"/>
-      <c r="AK52" s="126"/>
-      <c r="AL52" s="126"/>
-      <c r="AM52" s="126"/>
-      <c r="AN52" s="126"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="128"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="128"/>
     </row>
     <row r="53" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53"/>
@@ -3450,36 +3460,36 @@
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
-      <c r="M53" s="128"/>
-      <c r="N53" s="128"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="128"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
       <c r="W53"/>
       <c r="X53"/>
       <c r="Y53"/>
       <c r="Z53"/>
       <c r="AA53"/>
       <c r="AB53"/>
-      <c r="AC53" s="127"/>
-      <c r="AD53" s="127"/>
-      <c r="AE53" s="127"/>
-      <c r="AF53" s="127"/>
-      <c r="AG53" s="127"/>
-      <c r="AH53" s="127"/>
-      <c r="AI53" s="127"/>
-      <c r="AJ53" s="127"/>
-      <c r="AK53" s="127"/>
-      <c r="AL53" s="127"/>
-      <c r="AM53" s="127"/>
-      <c r="AN53" s="127"/>
+      <c r="AC53" s="129"/>
+      <c r="AD53" s="129"/>
+      <c r="AE53" s="129"/>
+      <c r="AF53" s="129"/>
+      <c r="AG53" s="129"/>
+      <c r="AH53" s="129"/>
+      <c r="AI53" s="129"/>
+      <c r="AJ53" s="129"/>
+      <c r="AK53" s="129"/>
+      <c r="AL53" s="129"/>
+      <c r="AM53" s="129"/>
+      <c r="AN53" s="129"/>
     </row>
     <row r="54" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54"/>
@@ -3488,131 +3498,180 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
-      <c r="I54" s="122" t="s">
+      <c r="I54" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
-      <c r="P54" s="123"/>
-      <c r="Q54" s="123"/>
-      <c r="R54" s="123"/>
-      <c r="S54" s="123"/>
-      <c r="T54" s="123"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
+      <c r="O54" s="125"/>
+      <c r="P54" s="125"/>
+      <c r="Q54" s="125"/>
+      <c r="R54" s="125"/>
+      <c r="S54" s="125"/>
+      <c r="T54" s="125"/>
       <c r="W54"/>
       <c r="X54"/>
       <c r="Y54"/>
       <c r="Z54"/>
       <c r="AA54"/>
       <c r="AB54"/>
-      <c r="AC54" s="124" t="s">
+      <c r="AC54" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="AD54" s="124"/>
-      <c r="AE54" s="124"/>
-      <c r="AF54" s="124"/>
-      <c r="AG54" s="124"/>
-      <c r="AH54" s="124"/>
-      <c r="AI54" s="124"/>
-      <c r="AJ54" s="124"/>
-      <c r="AK54" s="124"/>
-      <c r="AL54" s="124"/>
-      <c r="AM54" s="124"/>
-      <c r="AN54" s="124"/>
+      <c r="AD54" s="126"/>
+      <c r="AE54" s="126"/>
+      <c r="AF54" s="126"/>
+      <c r="AG54" s="126"/>
+      <c r="AH54" s="126"/>
+      <c r="AI54" s="126"/>
+      <c r="AJ54" s="126"/>
+      <c r="AK54" s="126"/>
+      <c r="AL54" s="126"/>
+      <c r="AM54" s="126"/>
+      <c r="AN54" s="126"/>
     </row>
     <row r="55" spans="2:42" ht="11.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="129" t="s">
+      <c r="B58" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="129"/>
-      <c r="L58" s="129"/>
-      <c r="M58" s="129"/>
-      <c r="N58" s="129"/>
-      <c r="O58" s="129"/>
-      <c r="P58" s="129"/>
-      <c r="Q58" s="129"/>
-      <c r="R58" s="129"/>
-      <c r="S58" s="129"/>
-      <c r="T58" s="129"/>
-      <c r="U58" s="129"/>
-      <c r="V58" s="129"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="129"/>
-      <c r="Y58" s="129"/>
-      <c r="Z58" s="129"/>
-      <c r="AA58" s="129"/>
-      <c r="AB58" s="129"/>
-      <c r="AC58" s="129"/>
-      <c r="AD58" s="129"/>
-      <c r="AE58" s="129"/>
-      <c r="AF58" s="129"/>
-      <c r="AG58" s="129"/>
-      <c r="AH58" s="129"/>
-      <c r="AI58" s="129"/>
-      <c r="AJ58" s="129"/>
-      <c r="AK58" s="129"/>
-      <c r="AL58" s="129"/>
-      <c r="AM58" s="129"/>
-      <c r="AN58" s="129"/>
-      <c r="AO58" s="129"/>
-      <c r="AP58" s="129"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="131"/>
+      <c r="L58" s="131"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
+      <c r="O58" s="131"/>
+      <c r="P58" s="131"/>
+      <c r="Q58" s="131"/>
+      <c r="R58" s="131"/>
+      <c r="S58" s="131"/>
+      <c r="T58" s="131"/>
+      <c r="U58" s="131"/>
+      <c r="V58" s="131"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="131"/>
+      <c r="Y58" s="131"/>
+      <c r="Z58" s="131"/>
+      <c r="AA58" s="131"/>
+      <c r="AB58" s="131"/>
+      <c r="AC58" s="131"/>
+      <c r="AD58" s="131"/>
+      <c r="AE58" s="131"/>
+      <c r="AF58" s="131"/>
+      <c r="AG58" s="131"/>
+      <c r="AH58" s="131"/>
+      <c r="AI58" s="131"/>
+      <c r="AJ58" s="131"/>
+      <c r="AK58" s="131"/>
+      <c r="AL58" s="131"/>
+      <c r="AM58" s="131"/>
+      <c r="AN58" s="131"/>
+      <c r="AO58" s="131"/>
+      <c r="AP58" s="131"/>
     </row>
     <row r="59" spans="2:42" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
-      <c r="O59" s="125"/>
-      <c r="P59" s="125"/>
-      <c r="Q59" s="125"/>
-      <c r="R59" s="125"/>
-      <c r="S59" s="125"/>
-      <c r="T59" s="125"/>
-      <c r="U59" s="125"/>
-      <c r="V59" s="125"/>
-      <c r="W59" s="125"/>
-      <c r="X59" s="125"/>
-      <c r="Y59" s="125"/>
-      <c r="Z59" s="125"/>
-      <c r="AA59" s="125"/>
-      <c r="AB59" s="125"/>
-      <c r="AC59" s="125"/>
-      <c r="AD59" s="125"/>
-      <c r="AE59" s="125"/>
-      <c r="AF59" s="125"/>
-      <c r="AG59" s="125"/>
-      <c r="AH59" s="125"/>
-      <c r="AI59" s="125"/>
-      <c r="AJ59" s="125"/>
-      <c r="AK59" s="125"/>
-      <c r="AL59" s="125"/>
-      <c r="AM59" s="125"/>
-      <c r="AN59" s="125"/>
-      <c r="AO59" s="125"/>
-      <c r="AP59" s="125"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="127"/>
+      <c r="O59" s="127"/>
+      <c r="P59" s="127"/>
+      <c r="Q59" s="127"/>
+      <c r="R59" s="127"/>
+      <c r="S59" s="127"/>
+      <c r="T59" s="127"/>
+      <c r="U59" s="127"/>
+      <c r="V59" s="127"/>
+      <c r="W59" s="127"/>
+      <c r="X59" s="127"/>
+      <c r="Y59" s="127"/>
+      <c r="Z59" s="127"/>
+      <c r="AA59" s="127"/>
+      <c r="AB59" s="127"/>
+      <c r="AC59" s="127"/>
+      <c r="AD59" s="127"/>
+      <c r="AE59" s="127"/>
+      <c r="AF59" s="127"/>
+      <c r="AG59" s="127"/>
+      <c r="AH59" s="127"/>
+      <c r="AI59" s="127"/>
+      <c r="AJ59" s="127"/>
+      <c r="AK59" s="127"/>
+      <c r="AL59" s="127"/>
+      <c r="AM59" s="127"/>
+      <c r="AN59" s="127"/>
+      <c r="AO59" s="127"/>
+      <c r="AP59" s="127"/>
+    </row>
+    <row r="67" spans="1:43" s="36" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="35"/>
+      <c r="AQ67" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="61">
